--- a/backend/django_Admin3/administrate/src/EventSessionImportTemplate 2025S V1.xlsx
+++ b/backend/django_Admin3/administrate/src/EventSessionImportTemplate 2025S V1.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{B34DF247-86E7-4FF5-BE27-EEC976CFC219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F5CAF8AF-194D-41BD-B544-6636BC86512F}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-210" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="228" yWindow="384" windowWidth="21600" windowHeight="11100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Import" sheetId="1" r:id="rId1"/>
@@ -5258,8 +5258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK948"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+    <sheetView tabSelected="1" topLeftCell="P3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -73469,6 +73469,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="724395a5-9866-4f6b-88f5-95467eafe09f" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3023e72d-cc0b-4bf4-8afb-4bcccaca7ae4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EB26AF0C5616E64481759524C737526E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8e0bb0ae4c7bdad02a8b77375b29b237">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3023e72d-cc0b-4bf4-8afb-4bcccaca7ae4" xmlns:ns3="724395a5-9866-4f6b-88f5-95467eafe09f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5b15267a74df54c0896e5d63d7c40d4e" ns2:_="" ns3:_="">
     <xsd:import namespace="3023e72d-cc0b-4bf4-8afb-4bcccaca7ae4"/>
@@ -73723,27 +73743,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89499641-2774-49E3-A198-B7607196CF89}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3023e72d-cc0b-4bf4-8afb-4bcccaca7ae4"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="724395a5-9866-4f6b-88f5-95467eafe09f"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="724395a5-9866-4f6b-88f5-95467eafe09f" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3023e72d-cc0b-4bf4-8afb-4bcccaca7ae4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B010B83-E9F6-44B5-B728-7C87B98D1853}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D003BEF3-9898-496B-B57A-C2ACDADF8C14}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -73760,29 +73785,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B010B83-E9F6-44B5-B728-7C87B98D1853}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89499641-2774-49E3-A198-B7607196CF89}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3023e72d-cc0b-4bf4-8afb-4bcccaca7ae4"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="724395a5-9866-4f6b-88f5-95467eafe09f"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>